--- a/diagramme/EnvironmentTests.xlsx
+++ b/diagramme/EnvironmentTests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\AlleDiagramme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UNI\S4\ComputerspielEntwicklung\DasSpiel\anfaengerpraktikum\diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43BB01-00EB-4337-94AB-D5DBCBEB7E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87094CFD-3AD3-413F-A863-22142148DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Nr</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Erwartetes Ergebnis</t>
-  </si>
-  <si>
-    <t>Testergebnis</t>
   </si>
   <si>
     <t>Wenn der Spieler den Brunnen berührt dann werden seine Blood Vials auf die maximale Anzahl gesetzt</t>
@@ -209,12 +206,18 @@
   <si>
     <t>Der Spieler kann sich darauf bewegen und stößt von jeder Seite dagegen</t>
   </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Tests für Environment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +242,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -301,14 +306,23 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,210 +604,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60.6" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85.8" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="61.2" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2">
-      <c r="A5" s="2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.8" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45.6" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85.8" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.6">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="115.8" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="86.4">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="100.8">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="72">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>